--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_02_valid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_02_valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD91EC-8270-4947-8C4E-518294F7012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5E3C8F-B40E-594C-AE32-2EDBAAA3A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47400" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59480" yWindow="540" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_NOTES" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1246">
   <si>
     <t>FIELD</t>
   </si>
@@ -2007,15 +2007,6 @@
     <t>CURRENT_CLASS</t>
   </si>
   <si>
-    <t>EXPLORATION</t>
-  </si>
-  <si>
-    <t>APPRAISAL</t>
-  </si>
-  <si>
-    <t>DEVELOPMENT</t>
-  </si>
-  <si>
     <t>Data for the project and resource authority common to all other templates. This must be completed prior to filling other templates. All locations throughout the templates must be referenced to the coordinate system specified in this template.</t>
   </si>
   <si>
@@ -3778,18 +3769,6 @@
   </si>
   <si>
     <t>SAMPLE_PXRF</t>
-  </si>
-  <si>
-    <t>BEDROCK</t>
-  </si>
-  <si>
-    <t>TRENCHING</t>
-  </si>
-  <si>
-    <t>GEOTECHNICAL</t>
-  </si>
-  <si>
-    <t>METALLURGICAL</t>
   </si>
   <si>
     <t>VERSION 3.0</t>
@@ -3879,6 +3858,30 @@
   </si>
   <si>
     <t>http://wikipedia.org/thing/xx</t>
+  </si>
+  <si>
+    <t>EXPLORATION CLASS</t>
+  </si>
+  <si>
+    <t>APPRAISAL CLASS</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT CLASS</t>
+  </si>
+  <si>
+    <t>WATER CLASS</t>
+  </si>
+  <si>
+    <t>BEDROCK CLASS</t>
+  </si>
+  <si>
+    <t>TRENCHING CLASS</t>
+  </si>
+  <si>
+    <t>GEOTECHNICAL CLASS</t>
+  </si>
+  <si>
+    <t>METALLURGICAL CLASS</t>
   </si>
 </sst>
 </file>
@@ -5526,14 +5529,14 @@
     <row r="3" spans="2:23" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="13"/>
       <c r="C3" s="93" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="110" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
@@ -5553,14 +5556,14 @@
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -5582,7 +5585,7 @@
     <row r="12" spans="2:23" ht="224.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="117" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="118"/>
@@ -5662,7 +5665,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F20" s="96" t="s">
         <v>3</v>
@@ -5765,10 +5768,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="122"/>
       <c r="D27" s="21" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F27" s="96" t="s">
         <v>30</v>
@@ -5828,7 +5831,7 @@
         <v>594</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F31" s="96" t="s">
         <v>3</v>
@@ -5842,7 +5845,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F32" s="96" t="s">
         <v>3</v>
@@ -5853,10 +5856,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="122"/>
       <c r="D33" s="21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="F33" s="96" t="s">
         <v>3</v>
@@ -5867,10 +5870,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="122"/>
       <c r="D34" s="21" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F34" s="96" t="s">
         <v>30</v>
@@ -5881,10 +5884,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="122"/>
       <c r="D35" s="21" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F35" s="96" t="s">
         <v>3</v>
@@ -5909,7 +5912,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="122"/>
       <c r="D37" s="21" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>597</v>
@@ -5923,10 +5926,10 @@
       <c r="B38" s="13"/>
       <c r="C38" s="122"/>
       <c r="D38" s="21" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>30</v>
@@ -6004,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="112"/>
@@ -6040,7 +6043,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="112"/>
@@ -6180,7 +6183,7 @@
   <dimension ref="A1:X566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6214,7 +6217,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G1" s="87"/>
     </row>
@@ -6241,7 +6244,7 @@
         <v>151</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>601</v>
@@ -6267,7 +6270,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G4" s="94" t="s">
         <v>630</v>
@@ -6276,28 +6279,28 @@
         <v>162</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J4" s="94" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L4" s="94" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M4" s="94" t="s">
         <v>537</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O4" s="94" t="s">
         <v>589</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="Q4" s="94" t="s">
         <v>601</v>
@@ -6309,7 +6312,7 @@
         <v>587</v>
       </c>
       <c r="T4" s="94" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="U4" s="94" t="s">
         <v>185</v>
@@ -6321,7 +6324,7 @@
         <v>196</v>
       </c>
       <c r="X4" s="94" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -6341,10 +6344,10 @@
         <v>616</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>631</v>
+        <v>1238</v>
       </c>
       <c r="H5" s="97" t="s">
         <v>163</v>
@@ -6356,34 +6359,34 @@
         <v>18</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L5" s="97" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="M5" s="99" t="s">
         <v>538</v>
       </c>
       <c r="N5" s="97" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O5" s="97" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P5" s="100" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="Q5" s="97" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="R5" s="97" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="S5" s="97" t="s">
         <v>404</v>
       </c>
       <c r="T5" s="97" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="U5" s="97" t="s">
         <v>436</v>
@@ -6395,7 +6398,7 @@
         <v>189</v>
       </c>
       <c r="X5" s="97" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -6412,52 +6415,52 @@
         <v>583</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>632</v>
+        <v>1239</v>
       </c>
       <c r="H6" s="97" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="L6" s="97" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="N6" s="97" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="O6" s="97" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P6" s="100" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q6" s="97" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="S6" s="97" t="s">
         <v>591</v>
       </c>
       <c r="T6" s="97" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="U6" s="97" t="s">
         <v>456</v>
@@ -6469,7 +6472,7 @@
         <v>190</v>
       </c>
       <c r="X6" s="97" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -6477,7 +6480,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C7" s="97" t="s">
         <v>20</v>
@@ -6486,13 +6489,13 @@
         <v>584</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>633</v>
+        <v>1240</v>
       </c>
       <c r="H7" s="97" t="s">
         <v>165</v>
@@ -6504,37 +6507,37 @@
         <v>127</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="L7" s="97" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="O7" s="97" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P7" s="100" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="Q7" s="97" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="R7" s="97" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="S7" s="97" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="T7" s="97" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="U7" s="97" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="V7" s="97" t="s">
         <v>612</v>
@@ -6543,7 +6546,7 @@
         <v>191</v>
       </c>
       <c r="X7" s="97" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -6551,7 +6554,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C8" s="97" t="s">
         <v>628</v>
@@ -6560,13 +6563,13 @@
         <v>617</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>144</v>
+        <v>1241</v>
       </c>
       <c r="H8" s="97" t="s">
         <v>166</v>
@@ -6575,37 +6578,37 @@
         <v>143</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="K8" s="99" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L8" s="97" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="N8" s="97" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="O8" s="97" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="Q8" s="97" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="S8" s="97" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="T8" s="97" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="U8" s="97" t="s">
         <v>438</v>
@@ -6621,7 +6624,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="97"/>
       <c r="B9" s="107" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>22</v>
@@ -6630,13 +6633,13 @@
         <v>618</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="H9" s="97" t="s">
         <v>629</v>
@@ -6648,37 +6651,37 @@
         <v>129</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L9" s="97" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="M9" s="99" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="N9" s="97" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O9" s="97" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="P9" s="100" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="Q9" s="97" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="R9" s="97" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="S9" s="97" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U9" s="97" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="V9" s="97" t="s">
         <v>614</v>
@@ -6691,7 +6694,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="107" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="97" t="s">
@@ -6701,49 +6704,49 @@
         <v>615</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="H10" s="97" t="s">
         <v>177</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J10" s="98" t="s">
         <v>128</v>
       </c>
       <c r="K10" s="99" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="L10" s="97" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="O10" s="97" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="Q10" s="97" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R10" s="97" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="S10" s="97" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="U10" s="97" t="s">
         <v>439</v>
@@ -6757,58 +6760,58 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="107" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="97" t="s">
         <v>620</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="H11" s="97" t="s">
         <v>176</v>
       </c>
       <c r="I11" s="97"/>
       <c r="J11" s="98" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="L11" s="97" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="M11" s="99" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="100" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="Q11" s="97" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="R11" s="97" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="S11" s="97" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="U11" s="97" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="V11" s="97"/>
       <c r="W11" s="97" t="s">
@@ -6819,56 +6822,56 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="97"/>
       <c r="B12" s="107" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="97" t="s">
         <v>621</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="97"/>
       <c r="J12" s="98" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="K12" s="99" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="M12" s="99" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="100" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="S12" s="97" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="U12" s="97" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="V12" s="97"/>
       <c r="W12" s="97"/>
@@ -6880,48 +6883,46 @@
         <v>624</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="97" t="s">
-        <v>1242</v>
-      </c>
+      <c r="D13" s="97"/>
       <c r="E13" s="97" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97"/>
       <c r="I13" s="97"/>
       <c r="J13" s="98" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="K13" s="99" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M13" s="99" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="N13" s="97" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="100" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="Q13" s="97" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="R13" s="97" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="S13" s="97" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="U13" s="97" t="s">
         <v>440</v>
@@ -6938,40 +6939,40 @@
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
       <c r="E14" s="97" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="97"/>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
       <c r="J14" s="98"/>
       <c r="K14" s="99" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="97" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="100" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="Q14" s="97" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="R14" s="97" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="S14" s="97" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="U14" s="97" t="s">
         <v>441</v>
@@ -6983,45 +6984,45 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="97"/>
       <c r="B15" s="107" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="97" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G15" s="97"/>
       <c r="H15" s="97"/>
       <c r="I15" s="97"/>
       <c r="J15" s="101"/>
       <c r="K15" s="99" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="L15" s="97" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="M15" s="97"/>
       <c r="N15" s="97" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="100" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="Q15" s="97" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="R15" s="97" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="S15" s="97" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="T15" s="97" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U15" s="97" t="s">
         <v>442</v>
@@ -7033,7 +7034,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="97"/>
       <c r="B16" s="107" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
@@ -7041,7 +7042,7 @@
         <v>622</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
@@ -7051,25 +7052,25 @@
         <v>141</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="M16" s="97"/>
       <c r="N16" s="97" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="100" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="Q16" s="97" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="S16" s="97"/>
       <c r="T16" s="97" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="U16" s="97" t="s">
         <v>444</v>
@@ -7081,41 +7082,41 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="97"/>
       <c r="B17" s="107" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
       <c r="I17" s="97"/>
       <c r="J17" s="97"/>
       <c r="K17" s="99" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="M17" s="97"/>
       <c r="N17" s="97" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="100" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Q17" s="97" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R17" s="97" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="S17" s="97"/>
       <c r="T17" s="97"/>
@@ -7129,41 +7130,41 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="97"/>
       <c r="B18" s="107" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="97"/>
       <c r="I18" s="97"/>
       <c r="J18" s="97"/>
       <c r="K18" s="99" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="M18" s="97"/>
       <c r="N18" s="97" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="100" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="Q18" s="97" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="R18" s="97" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="S18" s="97"/>
       <c r="T18" s="97"/>
@@ -7177,41 +7178,41 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="97"/>
       <c r="B19" s="107" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G19" s="97"/>
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
       <c r="K19" s="99" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L19" s="97" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M19" s="97"/>
       <c r="N19" s="97" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="100" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="Q19" s="97" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="R19" s="97" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="S19" s="97"/>
       <c r="T19" s="97"/>
@@ -7225,42 +7226,42 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="97"/>
       <c r="B20" s="107" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
       <c r="E20" s="97" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
       <c r="K20" s="99" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M20" s="97"/>
       <c r="N20" s="97"/>
       <c r="O20" s="97"/>
       <c r="P20" s="100" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="Q20" s="97" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="R20" s="97" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="S20" s="97"/>
       <c r="T20" s="97"/>
       <c r="U20" s="97" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="V20" s="97"/>
       <c r="W20" s="97"/>
@@ -7272,32 +7273,32 @@
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G21" s="97"/>
       <c r="H21" s="97"/>
       <c r="I21" s="97"/>
       <c r="J21" s="97"/>
       <c r="K21" s="99" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="M21" s="97"/>
       <c r="N21" s="97"/>
       <c r="O21" s="97"/>
       <c r="P21" s="100" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Q21" s="97" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="R21" s="97" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="S21" s="97"/>
       <c r="T21" s="97"/>
@@ -7315,29 +7316,29 @@
       <c r="D22" s="97"/>
       <c r="E22" s="97"/>
       <c r="F22" s="97" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G22" s="97"/>
       <c r="H22" s="97"/>
       <c r="I22" s="97"/>
       <c r="J22" s="97"/>
       <c r="K22" s="99" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M22" s="97"/>
       <c r="N22" s="97"/>
       <c r="O22" s="97"/>
       <c r="P22" s="100" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="Q22" s="97" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="R22" s="97" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="S22" s="97"/>
       <c r="T22" s="97"/>
@@ -7355,29 +7356,29 @@
       <c r="D23" s="97"/>
       <c r="E23" s="97"/>
       <c r="F23" s="97" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G23" s="97"/>
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
       <c r="J23" s="97"/>
       <c r="K23" s="99" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="M23" s="97"/>
       <c r="N23" s="97"/>
       <c r="O23" s="97"/>
       <c r="P23" s="100" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="Q23" s="97" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="R23" s="97" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="S23" s="97"/>
       <c r="T23" s="97"/>
@@ -7395,34 +7396,34 @@
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="97" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
       <c r="J24" s="97"/>
       <c r="K24" s="99" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="97"/>
       <c r="P24" s="100" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="Q24" s="97" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="S24" s="97"/>
       <c r="T24" s="97"/>
       <c r="U24" s="97" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="V24" s="97"/>
       <c r="W24" s="97"/>
@@ -7435,34 +7436,34 @@
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
       <c r="K25" s="99" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
       <c r="P25" s="100" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Q25" s="97" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="R25" s="97" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="S25" s="97"/>
       <c r="T25" s="97"/>
       <c r="U25" s="97" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="V25" s="97"/>
       <c r="W25" s="97"/>
@@ -7475,34 +7476,34 @@
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
       <c r="F26" s="97" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G26" s="97"/>
       <c r="H26" s="97"/>
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
       <c r="K26" s="99" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L26" s="97" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M26" s="97"/>
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
       <c r="P26" s="100" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q26" s="97" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="R26" s="97" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S26" s="97"/>
       <c r="T26" s="97"/>
       <c r="U26" s="97" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="V26" s="97"/>
       <c r="W26" s="97"/>
@@ -7515,29 +7516,29 @@
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
       <c r="F27" s="97" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G27" s="97"/>
       <c r="H27" s="97"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="99" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="L27" s="97" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="M27" s="97"/>
       <c r="N27" s="97"/>
       <c r="O27" s="97"/>
       <c r="P27" s="100" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Q27" s="97" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R27" s="97" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S27" s="97"/>
       <c r="T27" s="97"/>
@@ -7555,7 +7556,7 @@
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="97" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G28" s="97"/>
       <c r="H28" s="97"/>
@@ -7565,24 +7566,24 @@
         <v>129</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="M28" s="97"/>
       <c r="N28" s="97"/>
       <c r="O28" s="97"/>
       <c r="P28" s="100" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q28" s="97" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="R28" s="97" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="S28" s="97"/>
       <c r="T28" s="97"/>
       <c r="U28" s="97" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="V28" s="97"/>
       <c r="W28" s="97"/>
@@ -7595,34 +7596,34 @@
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
       <c r="F29" s="97" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="99" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="L29" s="97" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M29" s="97"/>
       <c r="N29" s="97"/>
       <c r="O29" s="97"/>
       <c r="P29" s="100" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="Q29" s="97" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="R29" s="97" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="S29" s="97"/>
       <c r="T29" s="97"/>
       <c r="U29" s="97" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="V29" s="97"/>
       <c r="W29" s="97"/>
@@ -7635,34 +7636,34 @@
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
       <c r="F30" s="97" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G30" s="97"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
       <c r="K30" s="99" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="L30" s="97" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="M30" s="97"/>
       <c r="N30" s="97"/>
       <c r="O30" s="97"/>
       <c r="P30" s="100" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q30" s="97" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="R30" s="97" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="S30" s="97"/>
       <c r="T30" s="97"/>
       <c r="U30" s="97" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="V30" s="97"/>
       <c r="W30" s="97"/>
@@ -7675,29 +7676,29 @@
       <c r="D31" s="97"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G31" s="97"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
       <c r="K31" s="99" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="L31" s="97" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="M31" s="97"/>
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
       <c r="P31" s="100" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="Q31" s="97" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="R31" s="97" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="S31" s="97"/>
       <c r="T31" s="97"/>
@@ -7715,29 +7716,29 @@
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="97" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
       <c r="K32" s="99" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M32" s="97"/>
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
       <c r="P32" s="100" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="Q32" s="97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="R32" s="97" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="S32" s="97"/>
       <c r="T32" s="97"/>
@@ -7755,29 +7756,29 @@
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
       <c r="F33" s="97" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G33" s="97"/>
       <c r="H33" s="97"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
       <c r="K33" s="99" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="L33" s="97" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
       <c r="O33" s="97"/>
       <c r="P33" s="100" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="Q33" s="97" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="R33" s="97" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="S33" s="97"/>
       <c r="T33" s="97"/>
@@ -7795,29 +7796,29 @@
       <c r="D34" s="97"/>
       <c r="E34" s="97"/>
       <c r="F34" s="97" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
       <c r="K34" s="99" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="L34" s="97" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="97"/>
       <c r="O34" s="97"/>
       <c r="P34" s="100" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="Q34" s="97" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="R34" s="97" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S34" s="97"/>
       <c r="T34" s="97"/>
@@ -7835,29 +7836,29 @@
       <c r="D35" s="97"/>
       <c r="E35" s="97"/>
       <c r="F35" s="97" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="G35" s="97"/>
       <c r="H35" s="97"/>
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
       <c r="K35" s="99" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="M35" s="97"/>
       <c r="N35" s="97"/>
       <c r="O35" s="97"/>
       <c r="P35" s="100" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="Q35" s="97" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="R35" s="97" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="S35" s="97"/>
       <c r="T35" s="97"/>
@@ -7875,34 +7876,34 @@
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
       <c r="F36" s="97" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G36" s="97"/>
       <c r="H36" s="97"/>
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="99" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="L36" s="97" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M36" s="97"/>
       <c r="N36" s="97"/>
       <c r="O36" s="97"/>
       <c r="P36" s="100" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="Q36" s="97" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="R36" s="97" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="S36" s="97"/>
       <c r="T36" s="97"/>
       <c r="U36" s="97" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="V36" s="97"/>
       <c r="W36" s="97"/>
@@ -7915,34 +7916,34 @@
       <c r="D37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="97" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="G37" s="97"/>
       <c r="H37" s="97"/>
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
       <c r="K37" s="99" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L37" s="97" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="M37" s="97"/>
       <c r="N37" s="97"/>
       <c r="O37" s="97"/>
       <c r="P37" s="100" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Q37" s="97" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="R37" s="97" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="S37" s="97"/>
       <c r="T37" s="97"/>
       <c r="U37" s="97" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="V37" s="97"/>
       <c r="W37" s="97"/>
@@ -7955,34 +7956,34 @@
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
       <c r="F38" s="97" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G38" s="97"/>
       <c r="H38" s="97"/>
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
       <c r="K38" s="99" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="L38" s="97" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M38" s="97"/>
       <c r="N38" s="97"/>
       <c r="O38" s="97"/>
       <c r="P38" s="100" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="Q38" s="97" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="R38" s="97" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="S38" s="97"/>
       <c r="T38" s="97"/>
       <c r="U38" s="97" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="V38" s="97"/>
       <c r="W38" s="97"/>
@@ -7995,7 +7996,7 @@
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
       <c r="F39" s="97" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="G39" s="97"/>
       <c r="H39" s="97"/>
@@ -8003,24 +8004,24 @@
       <c r="J39" s="97"/>
       <c r="K39" s="97"/>
       <c r="L39" s="97" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="M39" s="97"/>
       <c r="N39" s="97"/>
       <c r="O39" s="97"/>
       <c r="P39" s="100" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Q39" s="97" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="R39" s="97" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="S39" s="97"/>
       <c r="T39" s="97"/>
       <c r="U39" s="97" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="V39" s="97"/>
       <c r="W39" s="97"/>
@@ -8033,7 +8034,7 @@
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
       <c r="F40" s="97" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G40" s="97"/>
       <c r="H40" s="97"/>
@@ -8041,24 +8042,24 @@
       <c r="J40" s="97"/>
       <c r="K40" s="97"/>
       <c r="L40" s="97" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M40" s="97"/>
       <c r="N40" s="97"/>
       <c r="O40" s="97"/>
       <c r="P40" s="100" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Q40" s="97" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="R40" s="97" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S40" s="97"/>
       <c r="T40" s="97"/>
       <c r="U40" s="97" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="V40" s="97"/>
       <c r="W40" s="97"/>
@@ -8071,7 +8072,7 @@
       <c r="D41" s="97"/>
       <c r="E41" s="97"/>
       <c r="F41" s="97" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="G41" s="97"/>
       <c r="H41" s="97"/>
@@ -8079,19 +8080,19 @@
       <c r="J41" s="97"/>
       <c r="K41" s="97"/>
       <c r="L41" s="97" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="M41" s="97"/>
       <c r="N41" s="97"/>
       <c r="O41" s="97"/>
       <c r="P41" s="100" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="Q41" s="97" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="R41" s="97" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="S41" s="97"/>
       <c r="T41" s="97"/>
@@ -8109,7 +8110,7 @@
       <c r="D42" s="97"/>
       <c r="E42" s="97"/>
       <c r="F42" s="97" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G42" s="97"/>
       <c r="H42" s="97"/>
@@ -8117,24 +8118,24 @@
       <c r="J42" s="97"/>
       <c r="K42" s="97"/>
       <c r="L42" s="97" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M42" s="97"/>
       <c r="N42" s="97"/>
       <c r="O42" s="97"/>
       <c r="P42" s="100" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Q42" s="97" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="R42" s="97" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="S42" s="97"/>
       <c r="T42" s="97"/>
       <c r="U42" s="97" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="V42" s="97"/>
       <c r="W42" s="97"/>
@@ -8147,7 +8148,7 @@
       <c r="D43" s="97"/>
       <c r="E43" s="97"/>
       <c r="F43" s="97" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G43" s="97"/>
       <c r="H43" s="97"/>
@@ -8155,19 +8156,19 @@
       <c r="J43" s="97"/>
       <c r="K43" s="97"/>
       <c r="L43" s="97" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="M43" s="97"/>
       <c r="N43" s="97"/>
       <c r="O43" s="97"/>
       <c r="P43" s="100" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="Q43" s="97" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R43" s="97" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="S43" s="97"/>
       <c r="T43" s="97"/>
@@ -8185,7 +8186,7 @@
       <c r="D44" s="97"/>
       <c r="E44" s="97"/>
       <c r="F44" s="97" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="97"/>
@@ -8193,19 +8194,19 @@
       <c r="J44" s="97"/>
       <c r="K44" s="97"/>
       <c r="L44" s="97" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="M44" s="97"/>
       <c r="N44" s="97"/>
       <c r="O44" s="97"/>
       <c r="P44" s="100" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="Q44" s="97" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="R44" s="97" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="S44" s="97"/>
       <c r="T44" s="97"/>
@@ -8223,7 +8224,7 @@
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
       <c r="F45" s="97" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G45" s="97"/>
       <c r="H45" s="97"/>
@@ -8231,24 +8232,24 @@
       <c r="J45" s="97"/>
       <c r="K45" s="97"/>
       <c r="L45" s="97" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="M45" s="97"/>
       <c r="N45" s="97"/>
       <c r="O45" s="97"/>
       <c r="P45" s="100" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="Q45" s="97" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="R45" s="97" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="S45" s="97"/>
       <c r="T45" s="97"/>
       <c r="U45" s="97" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="V45" s="97"/>
       <c r="W45" s="97"/>
@@ -8267,24 +8268,24 @@
       <c r="J46" s="97"/>
       <c r="K46" s="97"/>
       <c r="L46" s="97" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="M46" s="97"/>
       <c r="N46" s="97"/>
       <c r="O46" s="97"/>
       <c r="P46" s="100" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="Q46" s="97" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="R46" s="97" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="S46" s="97"/>
       <c r="T46" s="97"/>
       <c r="U46" s="97" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="V46" s="97"/>
       <c r="W46" s="97"/>
@@ -8303,19 +8304,19 @@
       <c r="J47" s="97"/>
       <c r="K47" s="97"/>
       <c r="L47" s="97" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M47" s="97"/>
       <c r="N47" s="97"/>
       <c r="O47" s="97"/>
       <c r="P47" s="100" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="Q47" s="97" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="R47" s="97" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="S47" s="97"/>
       <c r="T47" s="97"/>
@@ -8339,22 +8340,22 @@
       <c r="J48" s="97"/>
       <c r="K48" s="97"/>
       <c r="L48" s="97" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97"/>
       <c r="O48" s="97"/>
       <c r="P48" s="97"/>
       <c r="Q48" s="97" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="R48" s="97" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="S48" s="97"/>
       <c r="T48" s="97"/>
       <c r="U48" s="97" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="V48" s="97"/>
       <c r="W48" s="97"/>
@@ -8373,22 +8374,22 @@
       <c r="J49" s="97"/>
       <c r="K49" s="97"/>
       <c r="L49" s="97" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M49" s="97"/>
       <c r="N49" s="97"/>
       <c r="O49" s="97"/>
       <c r="P49" s="97"/>
       <c r="Q49" s="97" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="R49" s="97" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="S49" s="97"/>
       <c r="T49" s="97"/>
       <c r="U49" s="97" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V49" s="97"/>
       <c r="W49" s="97"/>
@@ -8407,17 +8408,17 @@
       <c r="J50" s="97"/>
       <c r="K50" s="97"/>
       <c r="L50" s="97" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M50" s="97"/>
       <c r="N50" s="97"/>
       <c r="O50" s="97"/>
       <c r="P50" s="97"/>
       <c r="Q50" s="97" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="R50" s="97" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="S50" s="97"/>
       <c r="T50" s="97"/>
@@ -8441,22 +8442,22 @@
       <c r="J51" s="97"/>
       <c r="K51" s="97"/>
       <c r="L51" s="97" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="97"/>
       <c r="O51" s="97"/>
       <c r="P51" s="97"/>
       <c r="Q51" s="97" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="R51" s="97" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="S51" s="97"/>
       <c r="T51" s="97"/>
       <c r="U51" s="97" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="V51" s="97"/>
       <c r="W51" s="97"/>
@@ -8475,17 +8476,17 @@
       <c r="J52" s="97"/>
       <c r="K52" s="97"/>
       <c r="L52" s="97" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M52" s="97"/>
       <c r="N52" s="97"/>
       <c r="O52" s="97"/>
       <c r="P52" s="97"/>
       <c r="Q52" s="97" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="R52" s="97" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="S52" s="97"/>
       <c r="T52" s="97"/>
@@ -8509,22 +8510,22 @@
       <c r="J53" s="97"/>
       <c r="K53" s="97"/>
       <c r="L53" s="97" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="M53" s="97"/>
       <c r="N53" s="97"/>
       <c r="O53" s="97"/>
       <c r="P53" s="97"/>
       <c r="Q53" s="97" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="R53" s="97" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="S53" s="97"/>
       <c r="T53" s="97"/>
       <c r="U53" s="97" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="V53" s="97"/>
       <c r="W53" s="97"/>
@@ -8543,22 +8544,22 @@
       <c r="J54" s="97"/>
       <c r="K54" s="97"/>
       <c r="L54" s="97" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M54" s="97"/>
       <c r="N54" s="97"/>
       <c r="O54" s="97"/>
       <c r="P54" s="97"/>
       <c r="Q54" s="97" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="R54" s="97" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="S54" s="97"/>
       <c r="T54" s="97"/>
       <c r="U54" s="97" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="V54" s="97"/>
       <c r="W54" s="97"/>
@@ -8577,17 +8578,17 @@
       <c r="J55" s="97"/>
       <c r="K55" s="97"/>
       <c r="L55" s="97" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M55" s="97"/>
       <c r="N55" s="97"/>
       <c r="O55" s="97"/>
       <c r="P55" s="97"/>
       <c r="Q55" s="97" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="R55" s="97" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="S55" s="97"/>
       <c r="T55" s="97"/>
@@ -8611,17 +8612,17 @@
       <c r="J56" s="97"/>
       <c r="K56" s="97"/>
       <c r="L56" s="97" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M56" s="97"/>
       <c r="N56" s="97"/>
       <c r="O56" s="97"/>
       <c r="P56" s="97"/>
       <c r="Q56" s="97" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R56" s="97" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -8645,22 +8646,22 @@
       <c r="J57" s="97"/>
       <c r="K57" s="97"/>
       <c r="L57" s="97" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M57" s="97"/>
       <c r="N57" s="97"/>
       <c r="O57" s="97"/>
       <c r="P57" s="97"/>
       <c r="Q57" s="97" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="R57" s="97" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="S57" s="97"/>
       <c r="T57" s="97"/>
       <c r="U57" s="97" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="V57" s="97"/>
       <c r="W57" s="97"/>
@@ -8679,17 +8680,17 @@
       <c r="J58" s="97"/>
       <c r="K58" s="97"/>
       <c r="L58" s="97" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M58" s="97"/>
       <c r="N58" s="97"/>
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="R58" s="97" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="S58" s="97"/>
       <c r="T58" s="97"/>
@@ -8713,17 +8714,17 @@
       <c r="J59" s="97"/>
       <c r="K59" s="97"/>
       <c r="L59" s="97" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M59" s="97"/>
       <c r="N59" s="97"/>
       <c r="O59" s="97"/>
       <c r="P59" s="97"/>
       <c r="Q59" s="97" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="R59" s="97" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="S59" s="97"/>
       <c r="T59" s="97"/>
@@ -8747,17 +8748,17 @@
       <c r="J60" s="97"/>
       <c r="K60" s="97"/>
       <c r="L60" s="97" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M60" s="97"/>
       <c r="N60" s="97"/>
       <c r="O60" s="97"/>
       <c r="P60" s="97"/>
       <c r="Q60" s="97" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="R60" s="97" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="S60" s="97"/>
       <c r="T60" s="97"/>
@@ -8781,17 +8782,17 @@
       <c r="J61" s="97"/>
       <c r="K61" s="97"/>
       <c r="L61" s="97" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M61" s="97"/>
       <c r="N61" s="97"/>
       <c r="O61" s="97"/>
       <c r="P61" s="97"/>
       <c r="Q61" s="97" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="R61" s="97" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="S61" s="97"/>
       <c r="T61" s="97"/>
@@ -8815,17 +8816,17 @@
       <c r="J62" s="97"/>
       <c r="K62" s="97"/>
       <c r="L62" s="97" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M62" s="97"/>
       <c r="N62" s="97"/>
       <c r="O62" s="97"/>
       <c r="P62" s="97"/>
       <c r="Q62" s="97" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="R62" s="97" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="S62" s="97"/>
       <c r="T62" s="97"/>
@@ -8849,22 +8850,22 @@
       <c r="J63" s="97"/>
       <c r="K63" s="97"/>
       <c r="L63" s="97" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M63" s="97"/>
       <c r="N63" s="97"/>
       <c r="O63" s="97"/>
       <c r="P63" s="97"/>
       <c r="Q63" s="97" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="R63" s="97" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="S63" s="97"/>
       <c r="T63" s="97"/>
       <c r="U63" s="97" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="V63" s="97"/>
       <c r="W63" s="97"/>
@@ -8883,17 +8884,17 @@
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
       <c r="L64" s="97" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M64" s="97"/>
       <c r="N64" s="97"/>
       <c r="O64" s="97"/>
       <c r="P64" s="97"/>
       <c r="Q64" s="97" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="R64" s="97" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="S64" s="97"/>
       <c r="T64" s="97"/>
@@ -8917,7 +8918,7 @@
       <c r="J65" s="97"/>
       <c r="K65" s="97"/>
       <c r="L65" s="97" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="M65" s="97"/>
       <c r="N65" s="97"/>
@@ -8925,7 +8926,7 @@
       <c r="P65" s="97"/>
       <c r="Q65" s="97"/>
       <c r="R65" s="97" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="S65" s="97"/>
       <c r="T65" s="97"/>
@@ -8949,7 +8950,7 @@
       <c r="J66" s="97"/>
       <c r="K66" s="97"/>
       <c r="L66" s="97" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M66" s="97"/>
       <c r="N66" s="97"/>
@@ -8957,12 +8958,12 @@
       <c r="P66" s="97"/>
       <c r="Q66" s="97"/>
       <c r="R66" s="97" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="S66" s="97"/>
       <c r="T66" s="97"/>
       <c r="U66" s="97" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="V66" s="97"/>
       <c r="W66" s="97"/>
@@ -8981,7 +8982,7 @@
       <c r="J67" s="97"/>
       <c r="K67" s="97"/>
       <c r="L67" s="97" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="M67" s="97"/>
       <c r="N67" s="97"/>
@@ -8989,7 +8990,7 @@
       <c r="P67" s="97"/>
       <c r="Q67" s="97"/>
       <c r="R67" s="97" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="S67" s="97"/>
       <c r="T67" s="97"/>
@@ -9013,7 +9014,7 @@
       <c r="J68" s="97"/>
       <c r="K68" s="97"/>
       <c r="L68" s="97" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M68" s="97"/>
       <c r="N68" s="97"/>
@@ -9021,12 +9022,12 @@
       <c r="P68" s="97"/>
       <c r="Q68" s="97"/>
       <c r="R68" s="97" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="S68" s="97"/>
       <c r="T68" s="97"/>
       <c r="U68" s="97" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="V68" s="97"/>
       <c r="W68" s="97"/>
@@ -9045,7 +9046,7 @@
       <c r="J69" s="97"/>
       <c r="K69" s="97"/>
       <c r="L69" s="97" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M69" s="97"/>
       <c r="N69" s="97"/>
@@ -9053,7 +9054,7 @@
       <c r="P69" s="97"/>
       <c r="Q69" s="97"/>
       <c r="R69" s="97" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="S69" s="97"/>
       <c r="T69" s="97"/>
@@ -9077,7 +9078,7 @@
       <c r="J70" s="97"/>
       <c r="K70" s="97"/>
       <c r="L70" s="97" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="M70" s="97"/>
       <c r="N70" s="97"/>
@@ -9085,7 +9086,7 @@
       <c r="P70" s="97"/>
       <c r="Q70" s="97"/>
       <c r="R70" s="97" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="S70" s="97"/>
       <c r="T70" s="97"/>
@@ -9109,7 +9110,7 @@
       <c r="J71" s="97"/>
       <c r="K71" s="97"/>
       <c r="L71" s="97" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M71" s="97"/>
       <c r="N71" s="97"/>
@@ -9117,7 +9118,7 @@
       <c r="P71" s="97"/>
       <c r="Q71" s="97"/>
       <c r="R71" s="97" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="S71" s="97"/>
       <c r="T71" s="97"/>
@@ -9141,7 +9142,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="97"/>
       <c r="L72" s="97" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="M72" s="97"/>
       <c r="N72" s="97"/>
@@ -9149,12 +9150,12 @@
       <c r="P72" s="97"/>
       <c r="Q72" s="97"/>
       <c r="R72" s="97" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="S72" s="97"/>
       <c r="T72" s="97"/>
       <c r="U72" s="97" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="V72" s="97"/>
       <c r="W72" s="97"/>
@@ -9173,7 +9174,7 @@
       <c r="J73" s="97"/>
       <c r="K73" s="97"/>
       <c r="L73" s="97" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="M73" s="97"/>
       <c r="N73" s="97"/>
@@ -9181,7 +9182,7 @@
       <c r="P73" s="97"/>
       <c r="Q73" s="97"/>
       <c r="R73" s="97" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="S73" s="97"/>
       <c r="T73" s="97"/>
@@ -9205,7 +9206,7 @@
       <c r="J74" s="97"/>
       <c r="K74" s="97"/>
       <c r="L74" s="97" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M74" s="97"/>
       <c r="N74" s="97"/>
@@ -9213,12 +9214,12 @@
       <c r="P74" s="97"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="S74" s="97"/>
       <c r="T74" s="97"/>
       <c r="U74" s="97" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="V74" s="97"/>
       <c r="W74" s="97"/>
@@ -9237,7 +9238,7 @@
       <c r="J75" s="97"/>
       <c r="K75" s="97"/>
       <c r="L75" s="97" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M75" s="97"/>
       <c r="N75" s="97"/>
@@ -9267,7 +9268,7 @@
       <c r="J76" s="97"/>
       <c r="K76" s="97"/>
       <c r="L76" s="97" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M76" s="97"/>
       <c r="N76" s="97"/>
@@ -9297,7 +9298,7 @@
       <c r="J77" s="97"/>
       <c r="K77" s="97"/>
       <c r="L77" s="97" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M77" s="97"/>
       <c r="N77" s="97"/>
@@ -9308,7 +9309,7 @@
       <c r="S77" s="97"/>
       <c r="T77" s="97"/>
       <c r="U77" s="97" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="V77" s="97"/>
       <c r="W77" s="97"/>
@@ -9327,7 +9328,7 @@
       <c r="J78" s="97"/>
       <c r="K78" s="97"/>
       <c r="L78" s="97" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M78" s="97"/>
       <c r="N78" s="97"/>
@@ -9357,7 +9358,7 @@
       <c r="J79" s="97"/>
       <c r="K79" s="97"/>
       <c r="L79" s="97" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M79" s="97"/>
       <c r="N79" s="97"/>
@@ -9368,7 +9369,7 @@
       <c r="S79" s="97"/>
       <c r="T79" s="97"/>
       <c r="U79" s="97" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="V79" s="97"/>
       <c r="W79" s="97"/>
@@ -9387,7 +9388,7 @@
       <c r="J80" s="97"/>
       <c r="K80" s="97"/>
       <c r="L80" s="97" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M80" s="97"/>
       <c r="N80" s="97"/>
@@ -9398,7 +9399,7 @@
       <c r="S80" s="97"/>
       <c r="T80" s="97"/>
       <c r="U80" s="97" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="V80" s="97"/>
       <c r="W80" s="97"/>
@@ -9417,7 +9418,7 @@
       <c r="J81" s="97"/>
       <c r="K81" s="97"/>
       <c r="L81" s="97" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="M81" s="97"/>
       <c r="N81" s="97"/>
@@ -9447,7 +9448,7 @@
       <c r="J82" s="97"/>
       <c r="K82" s="97"/>
       <c r="L82" s="97" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M82" s="97"/>
       <c r="N82" s="97"/>
@@ -9458,7 +9459,7 @@
       <c r="S82" s="97"/>
       <c r="T82" s="97"/>
       <c r="U82" s="97" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V82" s="97"/>
       <c r="W82" s="97"/>
@@ -9477,7 +9478,7 @@
       <c r="J83" s="97"/>
       <c r="K83" s="97"/>
       <c r="L83" s="97" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="M83" s="97"/>
       <c r="N83" s="97"/>
@@ -9488,7 +9489,7 @@
       <c r="S83" s="97"/>
       <c r="T83" s="97"/>
       <c r="U83" s="97" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="V83" s="97"/>
       <c r="W83" s="97"/>
@@ -9507,7 +9508,7 @@
       <c r="J84" s="97"/>
       <c r="K84" s="97"/>
       <c r="L84" s="97" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M84" s="97"/>
       <c r="N84" s="97"/>
@@ -9518,7 +9519,7 @@
       <c r="S84" s="97"/>
       <c r="T84" s="97"/>
       <c r="U84" s="97" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="V84" s="97"/>
       <c r="W84" s="97"/>
@@ -9537,7 +9538,7 @@
       <c r="J85" s="97"/>
       <c r="K85" s="97"/>
       <c r="L85" s="97" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M85" s="97"/>
       <c r="N85" s="97"/>
@@ -9567,7 +9568,7 @@
       <c r="J86" s="97"/>
       <c r="K86" s="97"/>
       <c r="L86" s="97" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M86" s="97"/>
       <c r="N86" s="97"/>
@@ -9597,7 +9598,7 @@
       <c r="J87" s="97"/>
       <c r="K87" s="97"/>
       <c r="L87" s="97" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M87" s="97"/>
       <c r="N87" s="97"/>
@@ -9608,7 +9609,7 @@
       <c r="S87" s="97"/>
       <c r="T87" s="97"/>
       <c r="U87" s="97" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="V87" s="97"/>
       <c r="W87" s="97"/>
@@ -9627,7 +9628,7 @@
       <c r="J88" s="97"/>
       <c r="K88" s="97"/>
       <c r="L88" s="97" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M88" s="97"/>
       <c r="N88" s="97"/>
@@ -9657,7 +9658,7 @@
       <c r="J89" s="97"/>
       <c r="K89" s="97"/>
       <c r="L89" s="97" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M89" s="97"/>
       <c r="N89" s="97"/>
@@ -9687,7 +9688,7 @@
       <c r="J90" s="97"/>
       <c r="K90" s="97"/>
       <c r="L90" s="97" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M90" s="97"/>
       <c r="N90" s="97"/>
@@ -9698,7 +9699,7 @@
       <c r="S90" s="97"/>
       <c r="T90" s="97"/>
       <c r="U90" s="97" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="V90" s="97"/>
       <c r="W90" s="97"/>
@@ -9717,7 +9718,7 @@
       <c r="J91" s="97"/>
       <c r="K91" s="97"/>
       <c r="L91" s="97" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="M91" s="97"/>
       <c r="N91" s="97"/>
@@ -9747,7 +9748,7 @@
       <c r="J92" s="97"/>
       <c r="K92" s="97"/>
       <c r="L92" s="97" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M92" s="97"/>
       <c r="N92" s="97"/>
@@ -9777,7 +9778,7 @@
       <c r="J93" s="97"/>
       <c r="K93" s="97"/>
       <c r="L93" s="97" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M93" s="97"/>
       <c r="N93" s="97"/>
@@ -9807,7 +9808,7 @@
       <c r="J94" s="97"/>
       <c r="K94" s="97"/>
       <c r="L94" s="97" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M94" s="97"/>
       <c r="N94" s="97"/>
@@ -9818,7 +9819,7 @@
       <c r="S94" s="97"/>
       <c r="T94" s="97"/>
       <c r="U94" s="97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V94" s="97"/>
       <c r="W94" s="97"/>
@@ -9837,7 +9838,7 @@
       <c r="J95" s="97"/>
       <c r="K95" s="97"/>
       <c r="L95" s="97" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="M95" s="97"/>
       <c r="N95" s="97"/>
@@ -9848,7 +9849,7 @@
       <c r="S95" s="97"/>
       <c r="T95" s="97"/>
       <c r="U95" s="97" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="V95" s="97"/>
       <c r="W95" s="97"/>
@@ -9867,7 +9868,7 @@
       <c r="J96" s="97"/>
       <c r="K96" s="97"/>
       <c r="L96" s="97" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M96" s="97"/>
       <c r="N96" s="97"/>
@@ -9897,7 +9898,7 @@
       <c r="J97" s="97"/>
       <c r="K97" s="97"/>
       <c r="L97" s="97" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M97" s="97"/>
       <c r="N97" s="97"/>
@@ -9927,7 +9928,7 @@
       <c r="J98" s="97"/>
       <c r="K98" s="97"/>
       <c r="L98" s="97" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M98" s="97"/>
       <c r="N98" s="97"/>
@@ -9938,7 +9939,7 @@
       <c r="S98" s="97"/>
       <c r="T98" s="97"/>
       <c r="U98" s="97" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="V98" s="97"/>
       <c r="W98" s="97"/>
@@ -9957,7 +9958,7 @@
       <c r="J99" s="97"/>
       <c r="K99" s="97"/>
       <c r="L99" s="97" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="M99" s="97"/>
       <c r="N99" s="97"/>
@@ -9968,7 +9969,7 @@
       <c r="S99" s="97"/>
       <c r="T99" s="97"/>
       <c r="U99" s="97" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="V99" s="97"/>
       <c r="W99" s="97"/>
@@ -9987,7 +9988,7 @@
       <c r="J100" s="97"/>
       <c r="K100" s="97"/>
       <c r="L100" s="97" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="M100" s="97"/>
       <c r="N100" s="97"/>
@@ -9998,7 +9999,7 @@
       <c r="S100" s="97"/>
       <c r="T100" s="97"/>
       <c r="U100" s="97" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="V100" s="97"/>
       <c r="W100" s="97"/>
@@ -10017,7 +10018,7 @@
       <c r="J101" s="97"/>
       <c r="K101" s="97"/>
       <c r="L101" s="97" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M101" s="97"/>
       <c r="N101" s="97"/>
@@ -10047,7 +10048,7 @@
       <c r="J102" s="97"/>
       <c r="K102" s="97"/>
       <c r="L102" s="97" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="M102" s="97"/>
       <c r="N102" s="97"/>
@@ -10077,7 +10078,7 @@
       <c r="J103" s="97"/>
       <c r="K103" s="97"/>
       <c r="L103" s="97" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="M103" s="97"/>
       <c r="N103" s="97"/>
@@ -10107,7 +10108,7 @@
       <c r="J104" s="97"/>
       <c r="K104" s="97"/>
       <c r="L104" s="97" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="M104" s="97"/>
       <c r="N104" s="97"/>
@@ -10118,7 +10119,7 @@
       <c r="S104" s="97"/>
       <c r="T104" s="97"/>
       <c r="U104" s="97" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="V104" s="97"/>
       <c r="W104" s="97"/>
@@ -10137,7 +10138,7 @@
       <c r="J105" s="97"/>
       <c r="K105" s="97"/>
       <c r="L105" s="97" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M105" s="97"/>
       <c r="N105" s="97"/>
@@ -10148,7 +10149,7 @@
       <c r="S105" s="97"/>
       <c r="T105" s="97"/>
       <c r="U105" s="97" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="V105" s="97"/>
       <c r="W105" s="97"/>
@@ -10167,7 +10168,7 @@
       <c r="J106" s="97"/>
       <c r="K106" s="97"/>
       <c r="L106" s="97" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="M106" s="97"/>
       <c r="N106" s="97"/>
@@ -10178,7 +10179,7 @@
       <c r="S106" s="97"/>
       <c r="T106" s="97"/>
       <c r="U106" s="97" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="V106" s="97"/>
       <c r="W106" s="97"/>
@@ -10197,7 +10198,7 @@
       <c r="J107" s="97"/>
       <c r="K107" s="97"/>
       <c r="L107" s="97" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M107" s="97"/>
       <c r="N107" s="97"/>
@@ -10236,7 +10237,7 @@
       <c r="S108" s="97"/>
       <c r="T108" s="97"/>
       <c r="U108" s="97" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="V108" s="97"/>
       <c r="W108" s="97"/>
@@ -10404,7 +10405,7 @@
       <c r="S114" s="97"/>
       <c r="T114" s="97"/>
       <c r="U114" s="97" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="V114" s="97"/>
       <c r="W114" s="97"/>
@@ -10432,7 +10433,7 @@
       <c r="S115" s="97"/>
       <c r="T115" s="97"/>
       <c r="U115" s="97" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="V115" s="97"/>
       <c r="W115" s="97"/>
@@ -10488,7 +10489,7 @@
       <c r="S117" s="97"/>
       <c r="T117" s="97"/>
       <c r="U117" s="97" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="V117" s="97"/>
       <c r="W117" s="97"/>
@@ -10544,7 +10545,7 @@
       <c r="S119" s="97"/>
       <c r="T119" s="97"/>
       <c r="U119" s="97" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="V119" s="97"/>
       <c r="W119" s="97"/>
@@ -10572,7 +10573,7 @@
       <c r="S120" s="97"/>
       <c r="T120" s="97"/>
       <c r="U120" s="97" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="V120" s="97"/>
       <c r="W120" s="97"/>
@@ -10600,7 +10601,7 @@
       <c r="S121" s="97"/>
       <c r="T121" s="97"/>
       <c r="U121" s="97" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="V121" s="97"/>
       <c r="W121" s="97"/>
@@ -10656,7 +10657,7 @@
       <c r="S123" s="97"/>
       <c r="T123" s="97"/>
       <c r="U123" s="97" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V123" s="97"/>
       <c r="W123" s="97"/>
@@ -10684,7 +10685,7 @@
       <c r="S124" s="97"/>
       <c r="T124" s="97"/>
       <c r="U124" s="97" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="V124" s="97"/>
       <c r="W124" s="97"/>
@@ -10740,7 +10741,7 @@
       <c r="S126" s="97"/>
       <c r="T126" s="97"/>
       <c r="U126" s="97" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="V126" s="97"/>
       <c r="W126" s="97"/>
@@ -10824,7 +10825,7 @@
       <c r="S129" s="97"/>
       <c r="T129" s="97"/>
       <c r="U129" s="97" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="V129" s="97"/>
       <c r="W129" s="97"/>
@@ -10852,7 +10853,7 @@
       <c r="S130" s="97"/>
       <c r="T130" s="97"/>
       <c r="U130" s="97" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V130" s="97"/>
       <c r="W130" s="97"/>
@@ -10880,7 +10881,7 @@
       <c r="S131" s="97"/>
       <c r="T131" s="97"/>
       <c r="U131" s="97" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="V131" s="97"/>
       <c r="W131" s="97"/>
@@ -10908,7 +10909,7 @@
       <c r="S132" s="97"/>
       <c r="T132" s="97"/>
       <c r="U132" s="97" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="V132" s="97"/>
       <c r="W132" s="97"/>
@@ -10992,7 +10993,7 @@
       <c r="S135" s="97"/>
       <c r="T135" s="97"/>
       <c r="U135" s="97" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="V135" s="97"/>
       <c r="W135" s="97"/>
@@ -11020,7 +11021,7 @@
       <c r="S136" s="97"/>
       <c r="T136" s="97"/>
       <c r="U136" s="97" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="V136" s="97"/>
       <c r="W136" s="97"/>
@@ -11104,7 +11105,7 @@
       <c r="S139" s="97"/>
       <c r="T139" s="97"/>
       <c r="U139" s="97" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V139" s="97"/>
       <c r="W139" s="97"/>
@@ -11132,7 +11133,7 @@
       <c r="S140" s="97"/>
       <c r="T140" s="97"/>
       <c r="U140" s="97" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="V140" s="97"/>
       <c r="W140" s="97"/>
@@ -11188,7 +11189,7 @@
       <c r="S142" s="97"/>
       <c r="T142" s="97"/>
       <c r="U142" s="97" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V142" s="97"/>
       <c r="W142" s="97"/>
@@ -11244,7 +11245,7 @@
       <c r="S144" s="97"/>
       <c r="T144" s="97"/>
       <c r="U144" s="97" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="V144" s="97"/>
       <c r="W144" s="97"/>
@@ -11356,7 +11357,7 @@
       <c r="S148" s="97"/>
       <c r="T148" s="97"/>
       <c r="U148" s="97" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="V148" s="97"/>
       <c r="W148" s="97"/>
@@ -11384,7 +11385,7 @@
       <c r="S149" s="97"/>
       <c r="T149" s="97"/>
       <c r="U149" s="97" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="V149" s="97"/>
       <c r="W149" s="97"/>
@@ -11468,7 +11469,7 @@
       <c r="S152" s="97"/>
       <c r="T152" s="97"/>
       <c r="U152" s="97" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V152" s="97"/>
       <c r="W152" s="97"/>
@@ -11524,7 +11525,7 @@
       <c r="S154" s="97"/>
       <c r="T154" s="97"/>
       <c r="U154" s="97" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="V154" s="97"/>
       <c r="W154" s="97"/>
@@ -11580,7 +11581,7 @@
       <c r="S156" s="97"/>
       <c r="T156" s="97"/>
       <c r="U156" s="97" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V156" s="97"/>
       <c r="W156" s="97"/>
@@ -11692,7 +11693,7 @@
       <c r="S160" s="97"/>
       <c r="T160" s="97"/>
       <c r="U160" s="97" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V160" s="97"/>
       <c r="W160" s="97"/>
@@ -11832,7 +11833,7 @@
       <c r="S165" s="97"/>
       <c r="T165" s="97"/>
       <c r="U165" s="97" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="V165" s="97"/>
       <c r="W165" s="97"/>
@@ -12224,7 +12225,7 @@
       <c r="S179" s="97"/>
       <c r="T179" s="97"/>
       <c r="U179" s="97" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="V179" s="97"/>
       <c r="W179" s="97"/>
@@ -12252,7 +12253,7 @@
       <c r="S180" s="97"/>
       <c r="T180" s="97"/>
       <c r="U180" s="97" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="V180" s="97"/>
       <c r="W180" s="97"/>
@@ -12280,7 +12281,7 @@
       <c r="S181" s="97"/>
       <c r="T181" s="97"/>
       <c r="U181" s="97" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="V181" s="97"/>
       <c r="W181" s="97"/>
@@ -12532,7 +12533,7 @@
       <c r="S190" s="97"/>
       <c r="T190" s="97"/>
       <c r="U190" s="97" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="V190" s="97"/>
       <c r="W190" s="97"/>
@@ -12728,7 +12729,7 @@
       <c r="S197" s="97"/>
       <c r="T197" s="97"/>
       <c r="U197" s="97" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="V197" s="97"/>
       <c r="W197" s="97"/>
@@ -12756,7 +12757,7 @@
       <c r="S198" s="97"/>
       <c r="T198" s="97"/>
       <c r="U198" s="97" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="V198" s="97"/>
       <c r="W198" s="97"/>
@@ -12784,7 +12785,7 @@
       <c r="S199" s="97"/>
       <c r="T199" s="97"/>
       <c r="U199" s="97" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="V199" s="97"/>
       <c r="W199" s="97"/>
@@ -12924,7 +12925,7 @@
       <c r="S204" s="97"/>
       <c r="T204" s="97"/>
       <c r="U204" s="97" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="V204" s="97"/>
       <c r="W204" s="97"/>
@@ -13092,7 +13093,7 @@
       <c r="S210" s="97"/>
       <c r="T210" s="97"/>
       <c r="U210" s="97" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="V210" s="97"/>
       <c r="W210" s="97"/>
@@ -13148,7 +13149,7 @@
       <c r="S212" s="97"/>
       <c r="T212" s="97"/>
       <c r="U212" s="97" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="V212" s="97"/>
       <c r="W212" s="97"/>
@@ -13204,7 +13205,7 @@
       <c r="S214" s="97"/>
       <c r="T214" s="97"/>
       <c r="U214" s="97" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="V214" s="97"/>
       <c r="W214" s="97"/>
@@ -13232,7 +13233,7 @@
       <c r="S215" s="97"/>
       <c r="T215" s="97"/>
       <c r="U215" s="97" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="V215" s="97"/>
       <c r="W215" s="97"/>
@@ -13260,7 +13261,7 @@
       <c r="S216" s="97"/>
       <c r="T216" s="97"/>
       <c r="U216" s="97" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="V216" s="97"/>
       <c r="W216" s="97"/>
@@ -13456,7 +13457,7 @@
       <c r="S223" s="97"/>
       <c r="T223" s="97"/>
       <c r="U223" s="97" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="V223" s="97"/>
       <c r="W223" s="97"/>
@@ -13512,7 +13513,7 @@
       <c r="S225" s="97"/>
       <c r="T225" s="97"/>
       <c r="U225" s="97" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V225" s="97"/>
       <c r="W225" s="97"/>
@@ -13596,7 +13597,7 @@
       <c r="S228" s="97"/>
       <c r="T228" s="97"/>
       <c r="U228" s="97" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="V228" s="97"/>
       <c r="W228" s="97"/>
@@ -14128,7 +14129,7 @@
       <c r="S247" s="97"/>
       <c r="T247" s="97"/>
       <c r="U247" s="97" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="V247" s="97"/>
       <c r="W247" s="97"/>
@@ -14268,7 +14269,7 @@
       <c r="S252" s="97"/>
       <c r="T252" s="97"/>
       <c r="U252" s="97" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="V252" s="97"/>
       <c r="W252" s="97"/>
@@ -14296,7 +14297,7 @@
       <c r="S253" s="97"/>
       <c r="T253" s="97"/>
       <c r="U253" s="97" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="V253" s="97"/>
       <c r="W253" s="97"/>
@@ -14324,7 +14325,7 @@
       <c r="S254" s="97"/>
       <c r="T254" s="97"/>
       <c r="U254" s="97" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="V254" s="97"/>
       <c r="W254" s="97"/>
@@ -14492,7 +14493,7 @@
       <c r="S260" s="97"/>
       <c r="T260" s="97"/>
       <c r="U260" s="97" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="V260" s="97"/>
       <c r="W260" s="97"/>
@@ -14632,7 +14633,7 @@
       <c r="S265" s="97"/>
       <c r="T265" s="97"/>
       <c r="U265" s="97" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="V265" s="97"/>
       <c r="W265" s="97"/>
@@ -14688,7 +14689,7 @@
       <c r="S267" s="97"/>
       <c r="T267" s="97"/>
       <c r="U267" s="97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="V267" s="97"/>
       <c r="W267" s="97"/>
@@ -14884,7 +14885,7 @@
       <c r="S274" s="97"/>
       <c r="T274" s="97"/>
       <c r="U274" s="97" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="V274" s="97"/>
       <c r="W274" s="97"/>
@@ -14940,7 +14941,7 @@
       <c r="S276" s="97"/>
       <c r="T276" s="97"/>
       <c r="U276" s="97" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V276" s="97"/>
       <c r="W276" s="97"/>
@@ -14968,7 +14969,7 @@
       <c r="S277" s="97"/>
       <c r="T277" s="97"/>
       <c r="U277" s="97" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="V277" s="97"/>
       <c r="W277" s="97"/>
@@ -15108,7 +15109,7 @@
       <c r="S282" s="97"/>
       <c r="T282" s="97"/>
       <c r="U282" s="97" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V282" s="97"/>
       <c r="W282" s="97"/>
@@ -15136,7 +15137,7 @@
       <c r="S283" s="97"/>
       <c r="T283" s="97"/>
       <c r="U283" s="97" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="V283" s="97"/>
       <c r="W283" s="97"/>
@@ -15500,7 +15501,7 @@
       <c r="S296" s="97"/>
       <c r="T296" s="97"/>
       <c r="U296" s="97" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="V296" s="97"/>
       <c r="W296" s="97"/>
@@ -15556,7 +15557,7 @@
       <c r="S298" s="97"/>
       <c r="T298" s="97"/>
       <c r="U298" s="97" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V298" s="97"/>
       <c r="W298" s="97"/>
@@ -15640,7 +15641,7 @@
       <c r="S301" s="97"/>
       <c r="T301" s="97"/>
       <c r="U301" s="97" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="V301" s="97"/>
       <c r="W301" s="97"/>
@@ -15668,7 +15669,7 @@
       <c r="S302" s="97"/>
       <c r="T302" s="97"/>
       <c r="U302" s="97" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="V302" s="97"/>
       <c r="W302" s="97"/>
@@ -15724,7 +15725,7 @@
       <c r="S304" s="97"/>
       <c r="T304" s="97"/>
       <c r="U304" s="97" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="V304" s="97"/>
       <c r="W304" s="97"/>
@@ -15808,7 +15809,7 @@
       <c r="S307" s="97"/>
       <c r="T307" s="97"/>
       <c r="U307" s="97" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="V307" s="97"/>
       <c r="W307" s="97"/>
@@ -16032,7 +16033,7 @@
       <c r="S315" s="97"/>
       <c r="T315" s="97"/>
       <c r="U315" s="97" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="V315" s="97"/>
       <c r="W315" s="97"/>
@@ -16116,7 +16117,7 @@
       <c r="S318" s="97"/>
       <c r="T318" s="97"/>
       <c r="U318" s="97" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V318" s="97"/>
       <c r="W318" s="97"/>
@@ -16144,7 +16145,7 @@
       <c r="S319" s="97"/>
       <c r="T319" s="97"/>
       <c r="U319" s="97" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="V319" s="97"/>
       <c r="W319" s="97"/>
@@ -16396,7 +16397,7 @@
       <c r="S328" s="97"/>
       <c r="T328" s="97"/>
       <c r="U328" s="97" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="V328" s="97"/>
       <c r="W328" s="97"/>
@@ -16480,7 +16481,7 @@
       <c r="S331" s="97"/>
       <c r="T331" s="97"/>
       <c r="U331" s="97" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="V331" s="97"/>
       <c r="W331" s="97"/>
@@ -16536,7 +16537,7 @@
       <c r="S333" s="97"/>
       <c r="T333" s="97"/>
       <c r="U333" s="97" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="V333" s="97"/>
       <c r="W333" s="97"/>
@@ -16816,7 +16817,7 @@
       <c r="S343" s="97"/>
       <c r="T343" s="97"/>
       <c r="U343" s="97" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V343" s="97"/>
       <c r="W343" s="97"/>
@@ -16844,7 +16845,7 @@
       <c r="S344" s="97"/>
       <c r="T344" s="97"/>
       <c r="U344" s="97" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="V344" s="97"/>
       <c r="W344" s="97"/>
@@ -16956,7 +16957,7 @@
       <c r="S348" s="97"/>
       <c r="T348" s="97"/>
       <c r="U348" s="97" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="V348" s="97"/>
       <c r="W348" s="97"/>
@@ -16984,7 +16985,7 @@
       <c r="S349" s="97"/>
       <c r="T349" s="97"/>
       <c r="U349" s="97" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="V349" s="97"/>
       <c r="W349" s="97"/>
@@ -17012,7 +17013,7 @@
       <c r="S350" s="97"/>
       <c r="T350" s="97"/>
       <c r="U350" s="97" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="V350" s="97"/>
       <c r="W350" s="97"/>
@@ -17124,7 +17125,7 @@
       <c r="S354" s="97"/>
       <c r="T354" s="97"/>
       <c r="U354" s="97" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="V354" s="97"/>
       <c r="W354" s="97"/>
@@ -17236,7 +17237,7 @@
       <c r="S358" s="97"/>
       <c r="T358" s="97"/>
       <c r="U358" s="97" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="V358" s="97"/>
       <c r="W358" s="97"/>
@@ -17404,7 +17405,7 @@
       <c r="S364" s="97"/>
       <c r="T364" s="97"/>
       <c r="U364" s="97" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="V364" s="97"/>
       <c r="W364" s="97"/>
@@ -17572,7 +17573,7 @@
       <c r="S370" s="97"/>
       <c r="T370" s="97"/>
       <c r="U370" s="97" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="V370" s="97"/>
       <c r="W370" s="97"/>
@@ -17600,7 +17601,7 @@
       <c r="S371" s="97"/>
       <c r="T371" s="97"/>
       <c r="U371" s="97" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="V371" s="97"/>
       <c r="W371" s="97"/>
@@ -17768,7 +17769,7 @@
       <c r="S377" s="97"/>
       <c r="T377" s="97"/>
       <c r="U377" s="97" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="V377" s="97"/>
       <c r="W377" s="97"/>
@@ -17824,7 +17825,7 @@
       <c r="S379" s="97"/>
       <c r="T379" s="97"/>
       <c r="U379" s="97" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V379" s="97"/>
       <c r="W379" s="97"/>
@@ -18300,7 +18301,7 @@
       <c r="S396" s="97"/>
       <c r="T396" s="97"/>
       <c r="U396" s="97" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="V396" s="97"/>
       <c r="W396" s="97"/>
@@ -18412,7 +18413,7 @@
       <c r="S400" s="97"/>
       <c r="T400" s="97"/>
       <c r="U400" s="97" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="V400" s="97"/>
       <c r="W400" s="97"/>
@@ -18440,7 +18441,7 @@
       <c r="S401" s="97"/>
       <c r="T401" s="97"/>
       <c r="U401" s="97" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V401" s="97"/>
       <c r="W401" s="97"/>
@@ -18496,7 +18497,7 @@
       <c r="S403" s="97"/>
       <c r="T403" s="97"/>
       <c r="U403" s="97" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="V403" s="97"/>
       <c r="W403" s="97"/>
@@ -18748,7 +18749,7 @@
       <c r="S412" s="97"/>
       <c r="T412" s="97"/>
       <c r="U412" s="97" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V412" s="97"/>
       <c r="W412" s="97"/>
@@ -18776,7 +18777,7 @@
       <c r="S413" s="97"/>
       <c r="T413" s="97"/>
       <c r="U413" s="97" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="V413" s="97"/>
       <c r="W413" s="97"/>
@@ -19196,7 +19197,7 @@
       <c r="S428" s="97"/>
       <c r="T428" s="97"/>
       <c r="U428" s="97" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="V428" s="97"/>
       <c r="W428" s="97"/>
@@ -19252,7 +19253,7 @@
       <c r="S430" s="97"/>
       <c r="T430" s="97"/>
       <c r="U430" s="97" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="V430" s="97"/>
       <c r="W430" s="97"/>
@@ -19448,7 +19449,7 @@
       <c r="S437" s="97"/>
       <c r="T437" s="97"/>
       <c r="U437" s="97" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="V437" s="97"/>
       <c r="W437" s="97"/>
@@ -19700,7 +19701,7 @@
       <c r="S446" s="97"/>
       <c r="T446" s="97"/>
       <c r="U446" s="97" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="V446" s="97"/>
       <c r="W446" s="97"/>
@@ -19756,7 +19757,7 @@
       <c r="S448" s="97"/>
       <c r="T448" s="97"/>
       <c r="U448" s="97" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="V448" s="97"/>
       <c r="W448" s="97"/>
@@ -20008,7 +20009,7 @@
       <c r="S457" s="97"/>
       <c r="T457" s="97"/>
       <c r="U457" s="97" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="V457" s="97"/>
       <c r="W457" s="97"/>
@@ -20232,7 +20233,7 @@
       <c r="S465" s="97"/>
       <c r="T465" s="97"/>
       <c r="U465" s="97" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="V465" s="97"/>
       <c r="W465" s="97"/>
@@ -20512,7 +20513,7 @@
       <c r="S475" s="97"/>
       <c r="T475" s="97"/>
       <c r="U475" s="97" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="V475" s="97"/>
       <c r="W475" s="97"/>
@@ -20540,7 +20541,7 @@
       <c r="S476" s="97"/>
       <c r="T476" s="97"/>
       <c r="U476" s="97" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="V476" s="97"/>
       <c r="W476" s="97"/>
@@ -21036,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>602</v>
@@ -21045,7 +21046,7 @@
         <v>603</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21137,16 +21138,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -21155,13 +21156,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -21170,13 +21171,13 @@
         <v>581</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -43856,6 +43857,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -44086,30 +44110,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44126,29 +44152,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_02_valid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_02_valid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5E3C8F-B40E-594C-AE32-2EDBAAA3A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD854674-FFAF-BD49-A606-14D83CAA678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59480" yWindow="540" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3352,9 +3352,6 @@
   </si>
   <si>
     <t>Activity, final, partial relinquishment and partial surrender reports</t>
-  </si>
-  <si>
-    <t>SOIL_COLOUR</t>
   </si>
   <si>
     <t>PERCUSSION</t>
@@ -3882,6 +3879,9 @@
   </si>
   <si>
     <t>METALLURGICAL CLASS</t>
+  </si>
+  <si>
+    <t>COLOUR</t>
   </si>
 </sst>
 </file>
@@ -5556,14 +5556,14 @@
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -5585,7 +5585,7 @@
     <row r="12" spans="2:23" ht="224.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="117" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="118"/>
@@ -5831,7 +5831,7 @@
         <v>594</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F31" s="96" t="s">
         <v>3</v>
@@ -5845,7 +5845,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F32" s="96" t="s">
         <v>3</v>
@@ -5859,7 +5859,7 @@
         <v>1078</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F33" s="96" t="s">
         <v>3</v>
@@ -5870,10 +5870,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="122"/>
       <c r="D34" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F34" s="96" t="s">
         <v>30</v>
@@ -5887,7 +5887,7 @@
         <v>1076</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F35" s="96" t="s">
         <v>3</v>
@@ -5912,7 +5912,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="122"/>
       <c r="D37" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>597</v>
@@ -5929,7 +5929,7 @@
         <v>1077</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>30</v>
@@ -6084,23 +6084,23 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
-      <selection activeCell="E25" sqref="E25"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
+      <selection activeCell="M20" sqref="M20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0" topLeftCell="A34">
+      <selection activeCell="L8" sqref="L8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="70" showGridLines="0" topLeftCell="A25">
       <selection activeCell="L19" sqref="L19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0" topLeftCell="A34">
-      <selection activeCell="L8" sqref="L8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
-      <selection activeCell="M20" sqref="M20"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
+      <selection activeCell="E25" sqref="E25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -6164,10 +6164,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6182,8 +6182,8 @@
   </sheetPr>
   <dimension ref="A1:X566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6270,7 +6270,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G4" s="94" t="s">
         <v>630</v>
@@ -6282,10 +6282,10 @@
         <v>790</v>
       </c>
       <c r="J4" s="94" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L4" s="94" t="s">
         <v>973</v>
@@ -6294,13 +6294,13 @@
         <v>537</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1080</v>
+        <v>1245</v>
       </c>
       <c r="O4" s="94" t="s">
         <v>589</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q4" s="94" t="s">
         <v>601</v>
@@ -6324,7 +6324,7 @@
         <v>196</v>
       </c>
       <c r="X4" s="94" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -6344,10 +6344,10 @@
         <v>616</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H5" s="97" t="s">
         <v>163</v>
@@ -6359,7 +6359,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L5" s="97" t="s">
         <v>1003</v>
@@ -6374,7 +6374,7 @@
         <v>823</v>
       </c>
       <c r="P5" s="100" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q5" s="97" t="s">
         <v>839</v>
@@ -6398,7 +6398,7 @@
         <v>189</v>
       </c>
       <c r="X5" s="97" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -6418,10 +6418,10 @@
         <v>793</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H6" s="97" t="s">
         <v>164</v>
@@ -6433,13 +6433,13 @@
         <v>788</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L6" s="97" t="s">
         <v>1004</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="N6" s="97" t="s">
         <v>809</v>
@@ -6448,7 +6448,7 @@
         <v>824</v>
       </c>
       <c r="P6" s="100" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q6" s="97" t="s">
         <v>837</v>
@@ -6472,7 +6472,7 @@
         <v>190</v>
       </c>
       <c r="X6" s="97" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -6492,10 +6492,10 @@
         <v>794</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H7" s="97" t="s">
         <v>165</v>
@@ -6507,13 +6507,13 @@
         <v>127</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="L7" s="97" t="s">
         <v>1005</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N7" s="97" t="s">
         <v>810</v>
@@ -6522,7 +6522,7 @@
         <v>825</v>
       </c>
       <c r="P7" s="100" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q7" s="97" t="s">
         <v>831</v>
@@ -6546,7 +6546,7 @@
         <v>191</v>
       </c>
       <c r="X7" s="97" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -6566,10 +6566,10 @@
         <v>797</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H8" s="97" t="s">
         <v>166</v>
@@ -6578,16 +6578,16 @@
         <v>143</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K8" s="99" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="L8" s="97" t="s">
         <v>1006</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="N8" s="97" t="s">
         <v>811</v>
@@ -6596,7 +6596,7 @@
         <v>826</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q8" s="97" t="s">
         <v>830</v>
@@ -6633,13 +6633,13 @@
         <v>618</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H9" s="97" t="s">
         <v>629</v>
@@ -6651,13 +6651,13 @@
         <v>129</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="L9" s="97" t="s">
         <v>1007</v>
       </c>
       <c r="M9" s="99" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N9" s="97" t="s">
         <v>812</v>
@@ -6666,7 +6666,7 @@
         <v>827</v>
       </c>
       <c r="P9" s="100" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q9" s="97" t="s">
         <v>829</v>
@@ -6704,10 +6704,10 @@
         <v>615</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H10" s="97" t="s">
         <v>177</v>
@@ -6719,13 +6719,13 @@
         <v>128</v>
       </c>
       <c r="K10" s="99" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L10" s="97" t="s">
         <v>1008</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N10" s="97" t="s">
         <v>813</v>
@@ -6734,7 +6734,7 @@
         <v>828</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q10" s="97" t="s">
         <v>884</v>
@@ -6770,33 +6770,33 @@
         <v>800</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H11" s="97" t="s">
         <v>176</v>
       </c>
       <c r="I11" s="97"/>
       <c r="J11" s="98" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L11" s="97" t="s">
         <v>1009</v>
       </c>
       <c r="M11" s="99" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="N11" s="97" t="s">
         <v>814</v>
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="100" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q11" s="97" t="s">
         <v>867</v>
@@ -6832,15 +6832,15 @@
         <v>801</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="97"/>
       <c r="J12" s="98" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K12" s="99" t="s">
         <v>789</v>
@@ -6849,14 +6849,14 @@
         <v>1010</v>
       </c>
       <c r="M12" s="99" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N12" s="97" t="s">
         <v>815</v>
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q12" s="97" t="s">
         <v>868</v>
@@ -6888,29 +6888,29 @@
         <v>798</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97"/>
       <c r="I13" s="97"/>
       <c r="J13" s="98" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K13" s="99" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L13" s="97" t="s">
         <v>1011</v>
       </c>
       <c r="M13" s="99" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N13" s="97" t="s">
         <v>816</v>
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="100" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Q13" s="97" t="s">
         <v>838</v>
@@ -6942,14 +6942,14 @@
         <v>795</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G14" s="97"/>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
       <c r="J14" s="98"/>
       <c r="K14" s="99" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L14" s="97" t="s">
         <v>1012</v>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="100" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q14" s="97" t="s">
         <v>846</v>
@@ -6992,14 +6992,14 @@
         <v>796</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G15" s="97"/>
       <c r="H15" s="97"/>
       <c r="I15" s="97"/>
       <c r="J15" s="101"/>
       <c r="K15" s="99" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L15" s="97" t="s">
         <v>1013</v>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="100" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q15" s="97" t="s">
         <v>869</v>
@@ -7042,7 +7042,7 @@
         <v>622</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="100" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q16" s="97" t="s">
         <v>870</v>
@@ -7092,14 +7092,14 @@
         <v>799</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
       <c r="I17" s="97"/>
       <c r="J17" s="97"/>
       <c r="K17" s="99" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="L17" s="97" t="s">
         <v>975</v>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="100" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q17" s="97" t="s">
         <v>866</v>
@@ -7140,14 +7140,14 @@
         <v>802</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="97"/>
       <c r="I18" s="97"/>
       <c r="J18" s="97"/>
       <c r="K18" s="99" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L18" s="97" t="s">
         <v>976</v>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="100" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q18" s="97" t="s">
         <v>871</v>
@@ -7185,17 +7185,17 @@
         <v>585</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G19" s="97"/>
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
       <c r="K19" s="99" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L19" s="97" t="s">
         <v>977</v>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="100" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q19" s="97" t="s">
         <v>847</v>
@@ -7234,14 +7234,14 @@
         <v>803</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
       <c r="K20" s="99" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L20" s="97" t="s">
         <v>978</v>
@@ -7250,7 +7250,7 @@
       <c r="N20" s="97"/>
       <c r="O20" s="97"/>
       <c r="P20" s="100" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q20" s="97" t="s">
         <v>859</v>
@@ -7276,14 +7276,14 @@
         <v>804</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G21" s="97"/>
       <c r="H21" s="97"/>
       <c r="I21" s="97"/>
       <c r="J21" s="97"/>
       <c r="K21" s="99" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L21" s="97" t="s">
         <v>979</v>
@@ -7292,7 +7292,7 @@
       <c r="N21" s="97"/>
       <c r="O21" s="97"/>
       <c r="P21" s="100" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q21" s="97" t="s">
         <v>872</v>
@@ -7316,14 +7316,14 @@
       <c r="D22" s="97"/>
       <c r="E22" s="97"/>
       <c r="F22" s="97" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G22" s="97"/>
       <c r="H22" s="97"/>
       <c r="I22" s="97"/>
       <c r="J22" s="97"/>
       <c r="K22" s="99" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L22" s="97" t="s">
         <v>980</v>
@@ -7332,7 +7332,7 @@
       <c r="N22" s="97"/>
       <c r="O22" s="97"/>
       <c r="P22" s="100" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q22" s="97" t="s">
         <v>844</v>
@@ -7356,14 +7356,14 @@
       <c r="D23" s="97"/>
       <c r="E23" s="97"/>
       <c r="F23" s="97" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G23" s="97"/>
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
       <c r="J23" s="97"/>
       <c r="K23" s="99" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L23" s="97" t="s">
         <v>981</v>
@@ -7396,14 +7396,14 @@
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="97" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
       <c r="J24" s="97"/>
       <c r="K24" s="99" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L24" s="97" t="s">
         <v>982</v>
@@ -7412,7 +7412,7 @@
       <c r="N24" s="97"/>
       <c r="O24" s="97"/>
       <c r="P24" s="100" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Q24" s="97" t="s">
         <v>848</v>
@@ -7436,14 +7436,14 @@
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
       <c r="K25" s="99" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L25" s="97" t="s">
         <v>983</v>
@@ -7452,7 +7452,7 @@
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
       <c r="P25" s="100" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q25" s="97" t="s">
         <v>873</v>
@@ -7476,14 +7476,14 @@
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
       <c r="F26" s="97" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G26" s="97"/>
       <c r="H26" s="97"/>
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
       <c r="K26" s="99" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L26" s="97" t="s">
         <v>984</v>
@@ -7492,7 +7492,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
       <c r="P26" s="100" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q26" s="97" t="s">
         <v>832</v>
@@ -7516,14 +7516,14 @@
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
       <c r="F27" s="97" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G27" s="97"/>
       <c r="H27" s="97"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L27" s="97" t="s">
         <v>985</v>
@@ -7532,7 +7532,7 @@
       <c r="N27" s="97"/>
       <c r="O27" s="97"/>
       <c r="P27" s="100" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q27" s="97" t="s">
         <v>874</v>
@@ -7556,7 +7556,7 @@
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="97" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G28" s="97"/>
       <c r="H28" s="97"/>
@@ -7572,7 +7572,7 @@
       <c r="N28" s="97"/>
       <c r="O28" s="97"/>
       <c r="P28" s="100" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q28" s="97" t="s">
         <v>875</v>
@@ -7596,14 +7596,14 @@
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
       <c r="F29" s="97" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="99" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L29" s="97" t="s">
         <v>987</v>
@@ -7612,7 +7612,7 @@
       <c r="N29" s="97"/>
       <c r="O29" s="97"/>
       <c r="P29" s="100" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q29" s="97" t="s">
         <v>876</v>
@@ -7636,14 +7636,14 @@
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
       <c r="F30" s="97" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G30" s="97"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
       <c r="K30" s="99" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L30" s="97" t="s">
         <v>988</v>
@@ -7652,7 +7652,7 @@
       <c r="N30" s="97"/>
       <c r="O30" s="97"/>
       <c r="P30" s="100" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q30" s="97" t="s">
         <v>845</v>
@@ -7676,14 +7676,14 @@
       <c r="D31" s="97"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G31" s="97"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
       <c r="K31" s="99" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L31" s="97" t="s">
         <v>989</v>
@@ -7692,7 +7692,7 @@
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
       <c r="P31" s="100" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q31" s="97" t="s">
         <v>879</v>
@@ -7716,14 +7716,14 @@
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="97" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
       <c r="K32" s="99" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L32" s="97" t="s">
         <v>990</v>
@@ -7732,7 +7732,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
       <c r="P32" s="100" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q32" s="97" t="s">
         <v>840</v>
@@ -7756,14 +7756,14 @@
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
       <c r="F33" s="97" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G33" s="97"/>
       <c r="H33" s="97"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
       <c r="K33" s="99" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L33" s="97" t="s">
         <v>991</v>
@@ -7772,7 +7772,7 @@
       <c r="N33" s="97"/>
       <c r="O33" s="97"/>
       <c r="P33" s="100" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q33" s="97" t="s">
         <v>841</v>
@@ -7796,14 +7796,14 @@
       <c r="D34" s="97"/>
       <c r="E34" s="97"/>
       <c r="F34" s="97" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
       <c r="K34" s="99" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L34" s="97" t="s">
         <v>992</v>
@@ -7812,7 +7812,7 @@
       <c r="N34" s="97"/>
       <c r="O34" s="97"/>
       <c r="P34" s="100" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q34" s="97" t="s">
         <v>833</v>
@@ -7836,14 +7836,14 @@
       <c r="D35" s="97"/>
       <c r="E35" s="97"/>
       <c r="F35" s="97" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G35" s="97"/>
       <c r="H35" s="97"/>
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
       <c r="K35" s="99" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L35" s="97" t="s">
         <v>993</v>
@@ -7852,7 +7852,7 @@
       <c r="N35" s="97"/>
       <c r="O35" s="97"/>
       <c r="P35" s="100" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q35" s="97" t="s">
         <v>850</v>
@@ -7876,14 +7876,14 @@
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
       <c r="F36" s="97" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G36" s="97"/>
       <c r="H36" s="97"/>
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="99" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L36" s="97" t="s">
         <v>972</v>
@@ -7892,7 +7892,7 @@
       <c r="N36" s="97"/>
       <c r="O36" s="97"/>
       <c r="P36" s="100" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q36" s="97" t="s">
         <v>860</v>
@@ -7916,14 +7916,14 @@
       <c r="D37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="97" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G37" s="97"/>
       <c r="H37" s="97"/>
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
       <c r="K37" s="99" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L37" s="97" t="s">
         <v>994</v>
@@ -7932,7 +7932,7 @@
       <c r="N37" s="97"/>
       <c r="O37" s="97"/>
       <c r="P37" s="100" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q37" s="97" t="s">
         <v>849</v>
@@ -7956,14 +7956,14 @@
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
       <c r="F38" s="97" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G38" s="97"/>
       <c r="H38" s="97"/>
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
       <c r="K38" s="99" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L38" s="97" t="s">
         <v>995</v>
@@ -7972,7 +7972,7 @@
       <c r="N38" s="97"/>
       <c r="O38" s="97"/>
       <c r="P38" s="100" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q38" s="97" t="s">
         <v>842</v>
@@ -7996,7 +7996,7 @@
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
       <c r="F39" s="97" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G39" s="97"/>
       <c r="H39" s="97"/>
@@ -8010,7 +8010,7 @@
       <c r="N39" s="97"/>
       <c r="O39" s="97"/>
       <c r="P39" s="100" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q39" s="97" t="s">
         <v>851</v>
@@ -8034,7 +8034,7 @@
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
       <c r="F40" s="97" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G40" s="97"/>
       <c r="H40" s="97"/>
@@ -8048,7 +8048,7 @@
       <c r="N40" s="97"/>
       <c r="O40" s="97"/>
       <c r="P40" s="100" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q40" s="97" t="s">
         <v>836</v>
@@ -8072,7 +8072,7 @@
       <c r="D41" s="97"/>
       <c r="E41" s="97"/>
       <c r="F41" s="97" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G41" s="97"/>
       <c r="H41" s="97"/>
@@ -8086,7 +8086,7 @@
       <c r="N41" s="97"/>
       <c r="O41" s="97"/>
       <c r="P41" s="100" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q41" s="97" t="s">
         <v>880</v>
@@ -8110,7 +8110,7 @@
       <c r="D42" s="97"/>
       <c r="E42" s="97"/>
       <c r="F42" s="97" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G42" s="97"/>
       <c r="H42" s="97"/>
@@ -8124,7 +8124,7 @@
       <c r="N42" s="97"/>
       <c r="O42" s="97"/>
       <c r="P42" s="100" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q42" s="97" t="s">
         <v>852</v>
@@ -8148,7 +8148,7 @@
       <c r="D43" s="97"/>
       <c r="E43" s="97"/>
       <c r="F43" s="97" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G43" s="97"/>
       <c r="H43" s="97"/>
@@ -8162,7 +8162,7 @@
       <c r="N43" s="97"/>
       <c r="O43" s="97"/>
       <c r="P43" s="100" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q43" s="97" t="s">
         <v>834</v>
@@ -8186,7 +8186,7 @@
       <c r="D44" s="97"/>
       <c r="E44" s="97"/>
       <c r="F44" s="97" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="97"/>
@@ -8200,7 +8200,7 @@
       <c r="N44" s="97"/>
       <c r="O44" s="97"/>
       <c r="P44" s="100" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q44" s="97" t="s">
         <v>882</v>
@@ -8224,7 +8224,7 @@
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
       <c r="F45" s="97" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G45" s="97"/>
       <c r="H45" s="97"/>
@@ -8238,7 +8238,7 @@
       <c r="N45" s="97"/>
       <c r="O45" s="97"/>
       <c r="P45" s="100" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q45" s="97" t="s">
         <v>877</v>
@@ -8274,7 +8274,7 @@
       <c r="N46" s="97"/>
       <c r="O46" s="97"/>
       <c r="P46" s="100" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q46" s="97" t="s">
         <v>881</v>
@@ -8310,7 +8310,7 @@
       <c r="N47" s="97"/>
       <c r="O47" s="97"/>
       <c r="P47" s="100" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q47" s="97" t="s">
         <v>883</v>
@@ -20986,23 +20986,23 @@
     <sortCondition ref="T5"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70">
-      <selection activeCell="H4" sqref="H4"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
+      <selection activeCell="I21" sqref="I21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" topLeftCell="A2">
+      <selection activeCell="L8" sqref="L8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" topLeftCell="C1">
       <selection activeCell="F5" sqref="F5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" topLeftCell="A2">
-      <selection activeCell="L8" sqref="L8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
-      <selection activeCell="I21" sqref="I21"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70">
+      <selection activeCell="H4" sqref="H4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>602</v>
@@ -21046,7 +21046,7 @@
         <v>603</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21138,16 +21138,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C8" s="91" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>1224</v>
       </c>
-      <c r="D8" s="91" t="s">
-        <v>1225</v>
-      </c>
       <c r="E8" s="91" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -21156,13 +21156,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="104" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D9" s="104" t="s">
         <v>1230</v>
       </c>
-      <c r="D9" s="104" t="s">
-        <v>1231</v>
-      </c>
       <c r="E9" s="108" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -21171,13 +21171,13 @@
         <v>581</v>
       </c>
       <c r="C10" s="75" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="75" t="s">
         <v>1235</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="E10" s="109" t="s">
         <v>1236</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -21196,25 +21196,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="55" showGridLines="0">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="55" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="55" showGridLines="0">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="55" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24032,22 +24032,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -27718,22 +27718,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -34732,22 +34732,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -42824,22 +42824,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -43362,25 +43362,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43807,25 +43807,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43857,29 +43857,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -44110,10 +44087,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44136,20 +44147,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>